--- a/doc/scrum.xlsx
+++ b/doc/scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>Backlog</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>sortable</t>
+  </si>
+  <si>
+    <t>1/2 ok</t>
   </si>
 </sst>
 </file>
@@ -592,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F60"/>
+  <dimension ref="A2:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,164 +756,203 @@
       <c r="B32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -928,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B33:C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/scrum.xlsx
+++ b/doc/scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>Backlog</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>1/2 ok</t>
+  </si>
+  <si>
+    <t>TRUC à FAIRE NICOLAS</t>
+  </si>
+  <si>
+    <t>les tags</t>
+  </si>
+  <si>
+    <t>l'autompletion</t>
+  </si>
+  <si>
+    <t>trie des images</t>
   </si>
 </sst>
 </file>
@@ -603,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
@@ -1155,12 +1167,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>